--- a/XLSX/Bai 1/students_test_2.xlsx
+++ b/XLSX/Bai 1/students_test_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,26 +453,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Trần Thị Oanh</t>
+          <t>Nguyễn Gia Phúc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>8C2</t>
+          <t>7B1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phạm Gia Dũng</t>
+          <t>Lê Thùy Khoa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -483,52 +483,52 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Vũ Minh Hà</t>
+          <t>Đỗ Thị Chi</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6C2</t>
+          <t>8A3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vũ Gia Linh</t>
+          <t>Hoàng Thị Dũng</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8A2</t>
+          <t>6C3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Đỗ Thị Dũng</t>
+          <t>Vũ Ngọc Hà</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8B3</t>
+          <t>12C2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lê Văn Hà</t>
+          <t>Phạm Minh Nam</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -536,44 +536,44 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11A3</t>
+          <t>9A1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lê Ngọc Phúc</t>
+          <t>Đỗ Minh Dũng</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10A3</t>
+          <t>11B1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Đỗ Gia Phúc</t>
+          <t>Phạm Hữu Chi</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11B2</t>
+          <t>8C1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Trần Thị Linh</t>
+          <t>Lê Văn An</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -581,22 +581,157 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10B3</t>
+          <t>11C2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phạm Thùy Linh</t>
+          <t>Lê Văn Phúc</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>9A1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hoàng Ngọc An</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Đỗ Ngọc Nam</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Đỗ Minh Nam</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>18</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6B2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Nguyễn Minh Bình</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nguyễn Thùy Chi</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8B3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Phạm Minh Linh</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>13</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>9C3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vũ Gia Bình</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>12</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>9C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hữu Hà</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6C2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hoàng Ngọc Bình</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>15</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>12A3</t>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>12B2</t>
         </is>
       </c>
     </row>
